--- a/files/SM1/K7/K7-P189-Transport.xlsx
+++ b/files/SM1/K7/K7-P189-Transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4570739A-BDF0-4290-8D2D-021AFAC91678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F666580-02FF-4192-A4B3-CC230D6EC9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,46 +88,47 @@
     <t>truck</t>
   </si>
   <si>
+    <t>polkupyörä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyörä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle(longer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raitiovaunu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratikka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tram(longer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bussi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linja-auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus(longer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tram</t>
-  </si>
-  <si>
-    <t>polkupyörä</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyörä</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bicycle(longer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bicycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raitiovaunu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratikka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tram(longer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bussi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linja-auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus(longer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -495,7 +496,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -527,10 +528,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,34 +592,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
